--- a/social_media_scraper/Scraping_Output/facebook_data.xlsx
+++ b/social_media_scraper/Scraping_Output/facebook_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Social Media Analytics Dashboard\social_media_scraper\Scraping_Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC52A591-9852-491F-9746-983B312D01CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5E313E-387B-4FD4-8815-CA07ED38BD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="620">
   <si>
     <t>user_id</t>
   </si>
@@ -9283,6 +9283,9 @@
   </si>
   <si>
     <t>2025-03-13 10:01:36</t>
+  </si>
+  <si>
+    <t>18M followers</t>
   </si>
 </sst>
 </file>
@@ -9647,7 +9650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L101"/>
     </sheetView>
   </sheetViews>
@@ -9734,8 +9737,8 @@
       <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="L2">
-        <v>14000000</v>
+      <c r="L2" t="s">
+        <v>619</v>
       </c>
       <c r="M2" t="s">
         <v>18</v>
@@ -9781,8 +9784,8 @@
       <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="L3">
-        <v>14000000</v>
+      <c r="L3" t="s">
+        <v>619</v>
       </c>
       <c r="M3" t="s">
         <v>18</v>
@@ -9828,8 +9831,8 @@
       <c r="K4" t="s">
         <v>18</v>
       </c>
-      <c r="L4">
-        <v>14000000</v>
+      <c r="L4" t="s">
+        <v>619</v>
       </c>
       <c r="M4" t="s">
         <v>18</v>
@@ -9875,8 +9878,8 @@
       <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="L5">
-        <v>14000000</v>
+      <c r="L5" t="s">
+        <v>619</v>
       </c>
       <c r="M5" t="s">
         <v>18</v>
@@ -9922,8 +9925,8 @@
       <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="L6">
-        <v>14000000</v>
+      <c r="L6" t="s">
+        <v>619</v>
       </c>
       <c r="M6" t="s">
         <v>18</v>
@@ -9969,8 +9972,8 @@
       <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="L7">
-        <v>14000000</v>
+      <c r="L7" t="s">
+        <v>619</v>
       </c>
       <c r="M7" t="s">
         <v>18</v>
@@ -10016,8 +10019,8 @@
       <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="L8">
-        <v>14000000</v>
+      <c r="L8" t="s">
+        <v>619</v>
       </c>
       <c r="M8" t="s">
         <v>18</v>
@@ -10063,8 +10066,8 @@
       <c r="K9" t="s">
         <v>18</v>
       </c>
-      <c r="L9">
-        <v>14000000</v>
+      <c r="L9" t="s">
+        <v>619</v>
       </c>
       <c r="M9" t="s">
         <v>18</v>
@@ -10110,8 +10113,8 @@
       <c r="K10" t="s">
         <v>18</v>
       </c>
-      <c r="L10">
-        <v>14000000</v>
+      <c r="L10" t="s">
+        <v>619</v>
       </c>
       <c r="M10" t="s">
         <v>18</v>
@@ -10157,8 +10160,8 @@
       <c r="K11" t="s">
         <v>18</v>
       </c>
-      <c r="L11">
-        <v>14000000</v>
+      <c r="L11" t="s">
+        <v>619</v>
       </c>
       <c r="M11" t="s">
         <v>18</v>
@@ -10204,8 +10207,8 @@
       <c r="K12" t="s">
         <v>18</v>
       </c>
-      <c r="L12">
-        <v>14000000</v>
+      <c r="L12" t="s">
+        <v>619</v>
       </c>
       <c r="M12" t="s">
         <v>18</v>
@@ -10251,8 +10254,8 @@
       <c r="K13" t="s">
         <v>18</v>
       </c>
-      <c r="L13">
-        <v>14000000</v>
+      <c r="L13" t="s">
+        <v>619</v>
       </c>
       <c r="M13" t="s">
         <v>18</v>
@@ -10298,8 +10301,8 @@
       <c r="K14" t="s">
         <v>18</v>
       </c>
-      <c r="L14">
-        <v>14000000</v>
+      <c r="L14" t="s">
+        <v>619</v>
       </c>
       <c r="M14" t="s">
         <v>18</v>
@@ -10345,8 +10348,8 @@
       <c r="K15" t="s">
         <v>18</v>
       </c>
-      <c r="L15">
-        <v>14000000</v>
+      <c r="L15" t="s">
+        <v>619</v>
       </c>
       <c r="M15" t="s">
         <v>18</v>
@@ -10392,8 +10395,8 @@
       <c r="K16" t="s">
         <v>18</v>
       </c>
-      <c r="L16">
-        <v>14000000</v>
+      <c r="L16" t="s">
+        <v>619</v>
       </c>
       <c r="M16" t="s">
         <v>18</v>
@@ -10439,8 +10442,8 @@
       <c r="K17" t="s">
         <v>18</v>
       </c>
-      <c r="L17">
-        <v>14000000</v>
+      <c r="L17" t="s">
+        <v>619</v>
       </c>
       <c r="M17" t="s">
         <v>18</v>
@@ -10486,8 +10489,8 @@
       <c r="K18" t="s">
         <v>18</v>
       </c>
-      <c r="L18">
-        <v>14000000</v>
+      <c r="L18" t="s">
+        <v>619</v>
       </c>
       <c r="M18" t="s">
         <v>18</v>
@@ -10533,8 +10536,8 @@
       <c r="K19" t="s">
         <v>18</v>
       </c>
-      <c r="L19">
-        <v>14000000</v>
+      <c r="L19" t="s">
+        <v>619</v>
       </c>
       <c r="M19" t="s">
         <v>18</v>
@@ -10580,8 +10583,8 @@
       <c r="K20" t="s">
         <v>18</v>
       </c>
-      <c r="L20">
-        <v>14000000</v>
+      <c r="L20" t="s">
+        <v>619</v>
       </c>
       <c r="M20" t="s">
         <v>18</v>
@@ -10627,8 +10630,8 @@
       <c r="K21" t="s">
         <v>18</v>
       </c>
-      <c r="L21">
-        <v>14000000</v>
+      <c r="L21" t="s">
+        <v>619</v>
       </c>
       <c r="M21" t="s">
         <v>18</v>
@@ -10674,8 +10677,8 @@
       <c r="K22" t="s">
         <v>18</v>
       </c>
-      <c r="L22">
-        <v>14000000</v>
+      <c r="L22" t="s">
+        <v>619</v>
       </c>
       <c r="M22" t="s">
         <v>18</v>
@@ -10721,8 +10724,8 @@
       <c r="K23" t="s">
         <v>18</v>
       </c>
-      <c r="L23">
-        <v>14000000</v>
+      <c r="L23" t="s">
+        <v>619</v>
       </c>
       <c r="M23" t="s">
         <v>18</v>
@@ -10768,8 +10771,8 @@
       <c r="K24" t="s">
         <v>18</v>
       </c>
-      <c r="L24">
-        <v>14000000</v>
+      <c r="L24" t="s">
+        <v>619</v>
       </c>
       <c r="M24" t="s">
         <v>18</v>
@@ -10815,8 +10818,8 @@
       <c r="K25" t="s">
         <v>18</v>
       </c>
-      <c r="L25">
-        <v>14000000</v>
+      <c r="L25" t="s">
+        <v>619</v>
       </c>
       <c r="M25" t="s">
         <v>18</v>
@@ -10862,8 +10865,8 @@
       <c r="K26" t="s">
         <v>18</v>
       </c>
-      <c r="L26">
-        <v>14000000</v>
+      <c r="L26" t="s">
+        <v>619</v>
       </c>
       <c r="M26" t="s">
         <v>18</v>
@@ -10909,8 +10912,8 @@
       <c r="K27" t="s">
         <v>18</v>
       </c>
-      <c r="L27">
-        <v>14000000</v>
+      <c r="L27" t="s">
+        <v>619</v>
       </c>
       <c r="M27" t="s">
         <v>18</v>
@@ -10956,8 +10959,8 @@
       <c r="K28" t="s">
         <v>18</v>
       </c>
-      <c r="L28">
-        <v>14000000</v>
+      <c r="L28" t="s">
+        <v>619</v>
       </c>
       <c r="M28" t="s">
         <v>18</v>
@@ -11003,8 +11006,8 @@
       <c r="K29" t="s">
         <v>18</v>
       </c>
-      <c r="L29">
-        <v>14000000</v>
+      <c r="L29" t="s">
+        <v>619</v>
       </c>
       <c r="M29" t="s">
         <v>18</v>
@@ -11050,8 +11053,8 @@
       <c r="K30" t="s">
         <v>18</v>
       </c>
-      <c r="L30">
-        <v>14000000</v>
+      <c r="L30" t="s">
+        <v>619</v>
       </c>
       <c r="M30" t="s">
         <v>18</v>
@@ -11097,8 +11100,8 @@
       <c r="K31" t="s">
         <v>18</v>
       </c>
-      <c r="L31">
-        <v>14000000</v>
+      <c r="L31" t="s">
+        <v>619</v>
       </c>
       <c r="M31" t="s">
         <v>18</v>
@@ -11144,8 +11147,8 @@
       <c r="K32" t="s">
         <v>18</v>
       </c>
-      <c r="L32">
-        <v>14000000</v>
+      <c r="L32" t="s">
+        <v>619</v>
       </c>
       <c r="M32" t="s">
         <v>18</v>
@@ -11191,8 +11194,8 @@
       <c r="K33" t="s">
         <v>18</v>
       </c>
-      <c r="L33">
-        <v>14000000</v>
+      <c r="L33" t="s">
+        <v>619</v>
       </c>
       <c r="M33" t="s">
         <v>18</v>
@@ -11238,8 +11241,8 @@
       <c r="K34" t="s">
         <v>18</v>
       </c>
-      <c r="L34">
-        <v>14000000</v>
+      <c r="L34" t="s">
+        <v>619</v>
       </c>
       <c r="M34" t="s">
         <v>18</v>
@@ -11285,8 +11288,8 @@
       <c r="K35" t="s">
         <v>18</v>
       </c>
-      <c r="L35">
-        <v>14000000</v>
+      <c r="L35" t="s">
+        <v>619</v>
       </c>
       <c r="M35" t="s">
         <v>18</v>
@@ -11332,8 +11335,8 @@
       <c r="K36" t="s">
         <v>18</v>
       </c>
-      <c r="L36">
-        <v>14000000</v>
+      <c r="L36" t="s">
+        <v>619</v>
       </c>
       <c r="M36" t="s">
         <v>18</v>
@@ -11379,8 +11382,8 @@
       <c r="K37" t="s">
         <v>18</v>
       </c>
-      <c r="L37">
-        <v>14000000</v>
+      <c r="L37" t="s">
+        <v>619</v>
       </c>
       <c r="M37" t="s">
         <v>18</v>
@@ -11426,8 +11429,8 @@
       <c r="K38" t="s">
         <v>18</v>
       </c>
-      <c r="L38">
-        <v>14000000</v>
+      <c r="L38" t="s">
+        <v>619</v>
       </c>
       <c r="M38" t="s">
         <v>18</v>
@@ -11473,8 +11476,8 @@
       <c r="K39" t="s">
         <v>18</v>
       </c>
-      <c r="L39">
-        <v>14000000</v>
+      <c r="L39" t="s">
+        <v>619</v>
       </c>
       <c r="M39" t="s">
         <v>18</v>
@@ -11520,8 +11523,8 @@
       <c r="K40" t="s">
         <v>18</v>
       </c>
-      <c r="L40">
-        <v>14000000</v>
+      <c r="L40" t="s">
+        <v>619</v>
       </c>
       <c r="M40" t="s">
         <v>18</v>
@@ -11567,8 +11570,8 @@
       <c r="K41" t="s">
         <v>18</v>
       </c>
-      <c r="L41">
-        <v>14000000</v>
+      <c r="L41" t="s">
+        <v>619</v>
       </c>
       <c r="M41" t="s">
         <v>18</v>
@@ -11614,8 +11617,8 @@
       <c r="K42" t="s">
         <v>18</v>
       </c>
-      <c r="L42">
-        <v>14000000</v>
+      <c r="L42" t="s">
+        <v>619</v>
       </c>
       <c r="M42" t="s">
         <v>18</v>
@@ -11661,8 +11664,8 @@
       <c r="K43" t="s">
         <v>18</v>
       </c>
-      <c r="L43">
-        <v>14000000</v>
+      <c r="L43" t="s">
+        <v>619</v>
       </c>
       <c r="M43" t="s">
         <v>18</v>
@@ -11708,8 +11711,8 @@
       <c r="K44" t="s">
         <v>18</v>
       </c>
-      <c r="L44">
-        <v>14000000</v>
+      <c r="L44" t="s">
+        <v>619</v>
       </c>
       <c r="M44" t="s">
         <v>18</v>
@@ -11755,8 +11758,8 @@
       <c r="K45" t="s">
         <v>18</v>
       </c>
-      <c r="L45">
-        <v>14000000</v>
+      <c r="L45" t="s">
+        <v>619</v>
       </c>
       <c r="M45" t="s">
         <v>18</v>
@@ -11802,8 +11805,8 @@
       <c r="K46" t="s">
         <v>18</v>
       </c>
-      <c r="L46">
-        <v>14000000</v>
+      <c r="L46" t="s">
+        <v>619</v>
       </c>
       <c r="M46" t="s">
         <v>18</v>
@@ -11849,8 +11852,8 @@
       <c r="K47" t="s">
         <v>18</v>
       </c>
-      <c r="L47">
-        <v>14000000</v>
+      <c r="L47" t="s">
+        <v>619</v>
       </c>
       <c r="M47" t="s">
         <v>18</v>
@@ -11896,8 +11899,8 @@
       <c r="K48" t="s">
         <v>18</v>
       </c>
-      <c r="L48">
-        <v>14000000</v>
+      <c r="L48" t="s">
+        <v>619</v>
       </c>
       <c r="M48" t="s">
         <v>18</v>
@@ -11943,8 +11946,8 @@
       <c r="K49" t="s">
         <v>18</v>
       </c>
-      <c r="L49">
-        <v>14000000</v>
+      <c r="L49" t="s">
+        <v>619</v>
       </c>
       <c r="M49" t="s">
         <v>18</v>
@@ -11990,8 +11993,8 @@
       <c r="K50" t="s">
         <v>18</v>
       </c>
-      <c r="L50">
-        <v>14000000</v>
+      <c r="L50" t="s">
+        <v>619</v>
       </c>
       <c r="M50" t="s">
         <v>18</v>
@@ -12037,8 +12040,8 @@
       <c r="K51" t="s">
         <v>18</v>
       </c>
-      <c r="L51">
-        <v>14000000</v>
+      <c r="L51" t="s">
+        <v>619</v>
       </c>
       <c r="M51" t="s">
         <v>18</v>
@@ -12084,8 +12087,8 @@
       <c r="K52" t="s">
         <v>18</v>
       </c>
-      <c r="L52">
-        <v>14000000</v>
+      <c r="L52" t="s">
+        <v>619</v>
       </c>
       <c r="M52" t="s">
         <v>18</v>
@@ -12131,8 +12134,8 @@
       <c r="K53" t="s">
         <v>18</v>
       </c>
-      <c r="L53">
-        <v>14000000</v>
+      <c r="L53" t="s">
+        <v>619</v>
       </c>
       <c r="M53" t="s">
         <v>18</v>
@@ -12178,8 +12181,8 @@
       <c r="K54" t="s">
         <v>18</v>
       </c>
-      <c r="L54">
-        <v>14000000</v>
+      <c r="L54" t="s">
+        <v>619</v>
       </c>
       <c r="M54" t="s">
         <v>18</v>
@@ -12225,8 +12228,8 @@
       <c r="K55" t="s">
         <v>18</v>
       </c>
-      <c r="L55">
-        <v>14000000</v>
+      <c r="L55" t="s">
+        <v>619</v>
       </c>
       <c r="M55" t="s">
         <v>18</v>
@@ -12272,8 +12275,8 @@
       <c r="K56" t="s">
         <v>18</v>
       </c>
-      <c r="L56">
-        <v>14000000</v>
+      <c r="L56" t="s">
+        <v>619</v>
       </c>
       <c r="M56" t="s">
         <v>18</v>
@@ -12319,8 +12322,8 @@
       <c r="K57" t="s">
         <v>18</v>
       </c>
-      <c r="L57">
-        <v>14000000</v>
+      <c r="L57" t="s">
+        <v>619</v>
       </c>
       <c r="M57" t="s">
         <v>18</v>
@@ -12366,8 +12369,8 @@
       <c r="K58" t="s">
         <v>18</v>
       </c>
-      <c r="L58">
-        <v>14000000</v>
+      <c r="L58" t="s">
+        <v>619</v>
       </c>
       <c r="M58" t="s">
         <v>18</v>
@@ -12413,8 +12416,8 @@
       <c r="K59" t="s">
         <v>18</v>
       </c>
-      <c r="L59">
-        <v>14000000</v>
+      <c r="L59" t="s">
+        <v>619</v>
       </c>
       <c r="M59" t="s">
         <v>18</v>
@@ -12460,8 +12463,8 @@
       <c r="K60" t="s">
         <v>18</v>
       </c>
-      <c r="L60">
-        <v>14000000</v>
+      <c r="L60" t="s">
+        <v>619</v>
       </c>
       <c r="M60" t="s">
         <v>18</v>
@@ -12507,8 +12510,8 @@
       <c r="K61" t="s">
         <v>18</v>
       </c>
-      <c r="L61">
-        <v>14000000</v>
+      <c r="L61" t="s">
+        <v>619</v>
       </c>
       <c r="M61" t="s">
         <v>18</v>
@@ -12554,8 +12557,8 @@
       <c r="K62" t="s">
         <v>18</v>
       </c>
-      <c r="L62">
-        <v>14000000</v>
+      <c r="L62" t="s">
+        <v>619</v>
       </c>
       <c r="M62" t="s">
         <v>18</v>
@@ -12601,8 +12604,8 @@
       <c r="K63" t="s">
         <v>18</v>
       </c>
-      <c r="L63">
-        <v>14000000</v>
+      <c r="L63" t="s">
+        <v>619</v>
       </c>
       <c r="M63" t="s">
         <v>18</v>
@@ -12648,8 +12651,8 @@
       <c r="K64" t="s">
         <v>18</v>
       </c>
-      <c r="L64">
-        <v>14000000</v>
+      <c r="L64" t="s">
+        <v>619</v>
       </c>
       <c r="M64" t="s">
         <v>18</v>
@@ -12695,8 +12698,8 @@
       <c r="K65" t="s">
         <v>18</v>
       </c>
-      <c r="L65">
-        <v>14000000</v>
+      <c r="L65" t="s">
+        <v>619</v>
       </c>
       <c r="M65" t="s">
         <v>18</v>
@@ -12742,8 +12745,8 @@
       <c r="K66" t="s">
         <v>18</v>
       </c>
-      <c r="L66">
-        <v>14000000</v>
+      <c r="L66" t="s">
+        <v>619</v>
       </c>
       <c r="M66" t="s">
         <v>18</v>
@@ -12789,8 +12792,8 @@
       <c r="K67" t="s">
         <v>18</v>
       </c>
-      <c r="L67">
-        <v>14000000</v>
+      <c r="L67" t="s">
+        <v>619</v>
       </c>
       <c r="M67" t="s">
         <v>18</v>
@@ -12836,8 +12839,8 @@
       <c r="K68" t="s">
         <v>18</v>
       </c>
-      <c r="L68">
-        <v>14000000</v>
+      <c r="L68" t="s">
+        <v>619</v>
       </c>
       <c r="M68" t="s">
         <v>18</v>
@@ -12883,8 +12886,8 @@
       <c r="K69" t="s">
         <v>18</v>
       </c>
-      <c r="L69">
-        <v>14000000</v>
+      <c r="L69" t="s">
+        <v>619</v>
       </c>
       <c r="M69" t="s">
         <v>18</v>
@@ -12930,8 +12933,8 @@
       <c r="K70" t="s">
         <v>18</v>
       </c>
-      <c r="L70">
-        <v>14000000</v>
+      <c r="L70" t="s">
+        <v>619</v>
       </c>
       <c r="M70" t="s">
         <v>18</v>
@@ -12977,8 +12980,8 @@
       <c r="K71" t="s">
         <v>18</v>
       </c>
-      <c r="L71">
-        <v>14000000</v>
+      <c r="L71" t="s">
+        <v>619</v>
       </c>
       <c r="M71" t="s">
         <v>18</v>
@@ -13024,8 +13027,8 @@
       <c r="K72" t="s">
         <v>18</v>
       </c>
-      <c r="L72">
-        <v>14000000</v>
+      <c r="L72" t="s">
+        <v>619</v>
       </c>
       <c r="M72" t="s">
         <v>18</v>
@@ -13071,8 +13074,8 @@
       <c r="K73" t="s">
         <v>18</v>
       </c>
-      <c r="L73">
-        <v>14000000</v>
+      <c r="L73" t="s">
+        <v>619</v>
       </c>
       <c r="M73" t="s">
         <v>18</v>
@@ -13118,8 +13121,8 @@
       <c r="K74" t="s">
         <v>18</v>
       </c>
-      <c r="L74">
-        <v>14000000</v>
+      <c r="L74" t="s">
+        <v>619</v>
       </c>
       <c r="M74" t="s">
         <v>18</v>
@@ -13165,8 +13168,8 @@
       <c r="K75" t="s">
         <v>18</v>
       </c>
-      <c r="L75">
-        <v>14000000</v>
+      <c r="L75" t="s">
+        <v>619</v>
       </c>
       <c r="M75" t="s">
         <v>18</v>
@@ -13212,8 +13215,8 @@
       <c r="K76" t="s">
         <v>18</v>
       </c>
-      <c r="L76">
-        <v>14000000</v>
+      <c r="L76" t="s">
+        <v>619</v>
       </c>
       <c r="M76" t="s">
         <v>18</v>
@@ -13259,8 +13262,8 @@
       <c r="K77" t="s">
         <v>18</v>
       </c>
-      <c r="L77">
-        <v>14000000</v>
+      <c r="L77" t="s">
+        <v>619</v>
       </c>
       <c r="M77" t="s">
         <v>18</v>
@@ -13306,8 +13309,8 @@
       <c r="K78" t="s">
         <v>18</v>
       </c>
-      <c r="L78">
-        <v>14000000</v>
+      <c r="L78" t="s">
+        <v>619</v>
       </c>
       <c r="M78" t="s">
         <v>18</v>
@@ -13353,8 +13356,8 @@
       <c r="K79" t="s">
         <v>18</v>
       </c>
-      <c r="L79">
-        <v>14000000</v>
+      <c r="L79" t="s">
+        <v>619</v>
       </c>
       <c r="M79" t="s">
         <v>18</v>
@@ -13400,8 +13403,8 @@
       <c r="K80" t="s">
         <v>18</v>
       </c>
-      <c r="L80">
-        <v>14000000</v>
+      <c r="L80" t="s">
+        <v>619</v>
       </c>
       <c r="M80" t="s">
         <v>18</v>
@@ -13447,8 +13450,8 @@
       <c r="K81" t="s">
         <v>18</v>
       </c>
-      <c r="L81">
-        <v>14000000</v>
+      <c r="L81" t="s">
+        <v>619</v>
       </c>
       <c r="M81" t="s">
         <v>18</v>
@@ -13494,8 +13497,8 @@
       <c r="K82" t="s">
         <v>18</v>
       </c>
-      <c r="L82">
-        <v>14000000</v>
+      <c r="L82" t="s">
+        <v>619</v>
       </c>
       <c r="M82" t="s">
         <v>18</v>
@@ -13541,8 +13544,8 @@
       <c r="K83" t="s">
         <v>18</v>
       </c>
-      <c r="L83">
-        <v>14000000</v>
+      <c r="L83" t="s">
+        <v>619</v>
       </c>
       <c r="M83" t="s">
         <v>18</v>
@@ -13588,8 +13591,8 @@
       <c r="K84" t="s">
         <v>18</v>
       </c>
-      <c r="L84">
-        <v>14000000</v>
+      <c r="L84" t="s">
+        <v>619</v>
       </c>
       <c r="M84" t="s">
         <v>18</v>
@@ -13635,8 +13638,8 @@
       <c r="K85" t="s">
         <v>18</v>
       </c>
-      <c r="L85">
-        <v>14000000</v>
+      <c r="L85" t="s">
+        <v>619</v>
       </c>
       <c r="M85" t="s">
         <v>18</v>
@@ -13682,8 +13685,8 @@
       <c r="K86" t="s">
         <v>18</v>
       </c>
-      <c r="L86">
-        <v>14000000</v>
+      <c r="L86" t="s">
+        <v>619</v>
       </c>
       <c r="M86" t="s">
         <v>18</v>
@@ -13729,8 +13732,8 @@
       <c r="K87" t="s">
         <v>18</v>
       </c>
-      <c r="L87">
-        <v>14000000</v>
+      <c r="L87" t="s">
+        <v>619</v>
       </c>
       <c r="M87" t="s">
         <v>18</v>
@@ -13776,8 +13779,8 @@
       <c r="K88" t="s">
         <v>18</v>
       </c>
-      <c r="L88">
-        <v>14000000</v>
+      <c r="L88" t="s">
+        <v>619</v>
       </c>
       <c r="M88" t="s">
         <v>18</v>
@@ -13823,8 +13826,8 @@
       <c r="K89" t="s">
         <v>18</v>
       </c>
-      <c r="L89">
-        <v>14000000</v>
+      <c r="L89" t="s">
+        <v>619</v>
       </c>
       <c r="M89" t="s">
         <v>18</v>
@@ -13870,8 +13873,8 @@
       <c r="K90" t="s">
         <v>18</v>
       </c>
-      <c r="L90">
-        <v>14000000</v>
+      <c r="L90" t="s">
+        <v>619</v>
       </c>
       <c r="M90" t="s">
         <v>18</v>
@@ -13917,8 +13920,8 @@
       <c r="K91" t="s">
         <v>18</v>
       </c>
-      <c r="L91">
-        <v>14000000</v>
+      <c r="L91" t="s">
+        <v>619</v>
       </c>
       <c r="M91" t="s">
         <v>18</v>
@@ -13964,8 +13967,8 @@
       <c r="K92" t="s">
         <v>18</v>
       </c>
-      <c r="L92">
-        <v>14000000</v>
+      <c r="L92" t="s">
+        <v>619</v>
       </c>
       <c r="M92" t="s">
         <v>18</v>
@@ -14011,8 +14014,8 @@
       <c r="K93" t="s">
         <v>18</v>
       </c>
-      <c r="L93">
-        <v>14000000</v>
+      <c r="L93" t="s">
+        <v>619</v>
       </c>
       <c r="M93" t="s">
         <v>18</v>
@@ -14058,8 +14061,8 @@
       <c r="K94" t="s">
         <v>18</v>
       </c>
-      <c r="L94">
-        <v>14000000</v>
+      <c r="L94" t="s">
+        <v>619</v>
       </c>
       <c r="M94" t="s">
         <v>18</v>
@@ -14105,8 +14108,8 @@
       <c r="K95" t="s">
         <v>18</v>
       </c>
-      <c r="L95">
-        <v>14000000</v>
+      <c r="L95" t="s">
+        <v>619</v>
       </c>
       <c r="M95" t="s">
         <v>18</v>
@@ -14152,8 +14155,8 @@
       <c r="K96" t="s">
         <v>18</v>
       </c>
-      <c r="L96">
-        <v>14000000</v>
+      <c r="L96" t="s">
+        <v>619</v>
       </c>
       <c r="M96" t="s">
         <v>18</v>
@@ -14199,8 +14202,8 @@
       <c r="K97" t="s">
         <v>18</v>
       </c>
-      <c r="L97">
-        <v>14000000</v>
+      <c r="L97" t="s">
+        <v>619</v>
       </c>
       <c r="M97" t="s">
         <v>18</v>
@@ -14246,8 +14249,8 @@
       <c r="K98" t="s">
         <v>18</v>
       </c>
-      <c r="L98">
-        <v>14000000</v>
+      <c r="L98" t="s">
+        <v>619</v>
       </c>
       <c r="M98" t="s">
         <v>18</v>
@@ -14293,8 +14296,8 @@
       <c r="K99" t="s">
         <v>18</v>
       </c>
-      <c r="L99">
-        <v>14000000</v>
+      <c r="L99" t="s">
+        <v>619</v>
       </c>
       <c r="M99" t="s">
         <v>18</v>
@@ -14340,8 +14343,8 @@
       <c r="K100" t="s">
         <v>18</v>
       </c>
-      <c r="L100">
-        <v>14000000</v>
+      <c r="L100" t="s">
+        <v>619</v>
       </c>
       <c r="M100" t="s">
         <v>18</v>
@@ -14387,8 +14390,8 @@
       <c r="K101" t="s">
         <v>18</v>
       </c>
-      <c r="L101">
-        <v>14000000</v>
+      <c r="L101" t="s">
+        <v>619</v>
       </c>
       <c r="M101" t="s">
         <v>18</v>
